--- a/middleware/tcp/tcp-1000.xlsx
+++ b/middleware/tcp/tcp-1000.xlsx
@@ -420,5007 +420,5007 @@
         <f>AVERAGE(A3:A1002)</f>
       </c>
       <c r="B2" s="1">
-        <v>12165.551254</v>
+        <v>12371.631913</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1">
-        <v>0.294607</v>
+        <v>0.26337000000000005</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
-        <v>0.365293</v>
+        <v>0.297712</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1">
-        <v>0.270963</v>
+        <v>0.28029699999999996</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1">
-        <v>0.268785</v>
+        <v>0.424576</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1">
-        <v>0.300208</v>
+        <v>0.25542000000000004</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1">
-        <v>0.286772</v>
+        <v>0.183961</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1">
-        <v>0.302577</v>
+        <v>0.499646</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1">
-        <v>0.40257200000000004</v>
+        <v>0.248323</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1">
-        <v>0.393947</v>
+        <v>0.248546</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1">
-        <v>0.29161299999999996</v>
+        <v>0.229774</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1">
-        <v>0.289542</v>
+        <v>0.2776</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1">
-        <v>0.299628</v>
+        <v>0.28455400000000003</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1">
-        <v>0.364268</v>
+        <v>0.434179</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1">
-        <v>0.21522</v>
+        <v>0.24420699999999998</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1">
-        <v>0.290216</v>
+        <v>0.315186</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1">
-        <v>0.385086</v>
+        <v>0.227163</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1">
-        <v>0.239267</v>
+        <v>0.274115</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1">
-        <v>0.294354</v>
+        <v>0.273388</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1">
-        <v>0.287994</v>
+        <v>0.290746</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1">
-        <v>0.28770100000000004</v>
+        <v>0.278872</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1">
-        <v>0.302091</v>
+        <v>0.360353</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1">
-        <v>0.306175</v>
+        <v>0.256783</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1">
-        <v>0.27371999999999996</v>
+        <v>0.275796</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1">
-        <v>0.384455</v>
+        <v>0.27381099999999997</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1">
-        <v>0.24126</v>
+        <v>0.27469400000000005</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1">
-        <v>0.278501</v>
+        <v>0.262037</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1">
-        <v>0.440035</v>
+        <v>0.26125600000000004</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1">
-        <v>0.306932</v>
+        <v>0.24392</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1">
-        <v>0.291406</v>
+        <v>0.324037</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1">
-        <v>0.276883</v>
+        <v>0.42074300000000003</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1">
-        <v>0.287277</v>
+        <v>0.232428</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1">
-        <v>0.295129</v>
+        <v>0.29278000000000004</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1">
-        <v>0.316033</v>
+        <v>0.236929</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1">
-        <v>0.29113799999999995</v>
+        <v>0.30801100000000003</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1">
-        <v>0.332318</v>
+        <v>0.526152</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1">
-        <v>0.244686</v>
+        <v>0.32039599999999996</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1">
-        <v>0.367846</v>
+        <v>0.322466</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1">
-        <v>0.32391400000000004</v>
+        <v>0.253731</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1">
-        <v>0.290125</v>
+        <v>0.244032</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1">
-        <v>0.285871</v>
+        <v>0.284351</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1">
-        <v>0.298778</v>
+        <v>0.255014</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1">
-        <v>0.29128299999999996</v>
+        <v>0.24757</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1">
-        <v>0.365429</v>
+        <v>0.32606999999999997</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1">
-        <v>0.283627</v>
+        <v>0.364788</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1">
-        <v>0.262332</v>
+        <v>0.293074</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1">
-        <v>0.28864</v>
+        <v>0.277689</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1">
-        <v>0.32863499999999995</v>
+        <v>0.282932</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1">
-        <v>0.30612</v>
+        <v>0.25551</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1">
-        <v>0.33666</v>
+        <v>0.379324</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1">
-        <v>0.57243</v>
+        <v>0.37575899999999995</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1">
-        <v>0.264292</v>
+        <v>0.27208</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1">
-        <v>0.478418</v>
+        <v>0.291874</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1">
-        <v>0.25328500000000004</v>
+        <v>0.294834</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1">
-        <v>0.40343399999999996</v>
+        <v>0.24570899999999998</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1">
-        <v>0.282813</v>
+        <v>0.32714499999999996</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1">
-        <v>0.39093500000000003</v>
+        <v>0.281283</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1">
-        <v>0.33016799999999996</v>
+        <v>0.302234</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1">
-        <v>0.47176</v>
+        <v>0.327386</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1">
-        <v>0.283085</v>
+        <v>0.303216</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1">
-        <v>0.384112</v>
+        <v>0.23552299999999998</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1">
-        <v>0.23419500000000001</v>
+        <v>0.270506</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1">
-        <v>0.27593</v>
+        <v>0.30045099999999997</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1">
-        <v>0.301515</v>
+        <v>0.293454</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1">
-        <v>0.476495</v>
+        <v>0.239448</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1">
-        <v>0.37901</v>
+        <v>0.31801799999999997</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1">
-        <v>0.33491499999999996</v>
+        <v>0.244691</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1">
-        <v>0.320063</v>
+        <v>0.255942</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1">
-        <v>0.363339</v>
+        <v>0.22591</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1">
-        <v>0.271947</v>
+        <v>0.338785</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1">
-        <v>0.43394499999999997</v>
+        <v>0.270038</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1">
-        <v>0.315732</v>
+        <v>0.28759199999999996</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1">
-        <v>0.37591600000000003</v>
+        <v>0.5030800000000001</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1">
-        <v>0.166195</v>
+        <v>0.29605099999999995</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1">
-        <v>0.400342</v>
+        <v>0.262405</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1">
-        <v>0.28448999999999997</v>
+        <v>0.16808700000000001</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1">
-        <v>0.303488</v>
+        <v>0.236289</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1">
-        <v>0.33899</v>
+        <v>0.7244419999999999</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1">
-        <v>0.37727099999999997</v>
+        <v>0.332311</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1">
-        <v>0.295108</v>
+        <v>0.26353200000000004</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1">
-        <v>0.401972</v>
+        <v>0.24677199999999996</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1">
-        <v>0.218878</v>
+        <v>0.258696</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1">
-        <v>0.246532</v>
+        <v>0.284491</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1">
-        <v>0.22699999999999998</v>
+        <v>0.235207</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1">
-        <v>0.728791</v>
+        <v>0.338328</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1">
-        <v>0.28379000000000004</v>
+        <v>0.312345</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1">
-        <v>0.280584</v>
+        <v>0.35879500000000003</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1">
-        <v>0.295715</v>
+        <v>0.29198100000000005</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1">
-        <v>0.295667</v>
+        <v>0.257477</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1">
-        <v>0.263218</v>
+        <v>0.26303</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1">
-        <v>0.29191999999999996</v>
+        <v>0.291709</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1">
-        <v>0.28784600000000005</v>
+        <v>0.24484000000000003</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1">
-        <v>0.44234199999999996</v>
+        <v>0.237097</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1">
-        <v>0.33221999999999996</v>
+        <v>0.267969</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1">
-        <v>0.320355</v>
+        <v>0.26681099999999996</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1">
-        <v>0.320612</v>
+        <v>0.300652</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1">
-        <v>0.275517</v>
+        <v>0.316597</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1">
-        <v>0.341265</v>
+        <v>0.27313400000000004</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1">
-        <v>0.296271</v>
+        <v>0.333514</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1">
-        <v>0.273841</v>
+        <v>0.20399799999999998</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1">
-        <v>0.420614</v>
+        <v>0.25276600000000005</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1">
-        <v>0.29700400000000005</v>
+        <v>0.287646</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1">
-        <v>0.311313</v>
+        <v>0.345103</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1">
-        <v>0.280653</v>
+        <v>0.301983</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1">
-        <v>0.24651900000000002</v>
+        <v>0.25314400000000004</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1">
-        <v>0.281867</v>
+        <v>0.294493</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1">
-        <v>0.31062199999999995</v>
+        <v>0.251322</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1">
-        <v>0.277009</v>
+        <v>0.292111</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1">
-        <v>0.29641</v>
+        <v>0.251935</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1">
-        <v>0.31878100000000004</v>
+        <v>0.272083</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1">
-        <v>0.323207</v>
+        <v>0.325828</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1">
-        <v>0.271585</v>
+        <v>0.239268</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1">
-        <v>0.33305599999999996</v>
+        <v>0.303256</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1">
-        <v>0.31993499999999997</v>
+        <v>0.286248</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1">
-        <v>0.38000300000000004</v>
+        <v>0.286854</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1">
-        <v>0.368274</v>
+        <v>0.283252</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1">
-        <v>0.32229399999999997</v>
+        <v>0.45857899999999996</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1">
-        <v>0.30304600000000004</v>
+        <v>0.240894</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1">
-        <v>0.250585</v>
+        <v>0.286231</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1">
-        <v>0.286591</v>
+        <v>0.246343</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1">
-        <v>0.294339</v>
+        <v>0.275763</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1">
-        <v>0.321818</v>
+        <v>0.401766</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1">
-        <v>0.353403</v>
+        <v>0.363949</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1">
-        <v>0.343324</v>
+        <v>0.225277</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1">
-        <v>0.288538</v>
+        <v>0.22835999999999998</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1">
-        <v>0.25637</v>
+        <v>0.281234</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1">
-        <v>0.272055</v>
+        <v>0.336553</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1">
-        <v>0.260674</v>
+        <v>0.30162</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1">
-        <v>0.302736</v>
+        <v>0.271711</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1">
-        <v>0.321812</v>
+        <v>0.283883</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1">
-        <v>0.26741200000000004</v>
+        <v>0.326113</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1">
-        <v>0.28323699999999996</v>
+        <v>0.297557</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1">
-        <v>0.24489500000000003</v>
+        <v>0.374142</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1">
-        <v>0.318441</v>
+        <v>0.304196</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1">
-        <v>0.271471</v>
+        <v>0.32087</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1">
-        <v>0.26793</v>
+        <v>0.33488</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1">
-        <v>0.238999</v>
+        <v>0.282555</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1">
-        <v>1.7102199999999999</v>
+        <v>0.268637</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1">
-        <v>0.22265</v>
+        <v>0.252118</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1">
-        <v>0.366801</v>
+        <v>0.28862499999999996</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1">
-        <v>0.295223</v>
+        <v>0.36629799999999996</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1">
-        <v>0.324849</v>
+        <v>0.31336800000000004</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1">
-        <v>0.292381</v>
+        <v>0.256543</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1">
-        <v>0.291339</v>
+        <v>0.286274</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1">
-        <v>0.261496</v>
+        <v>0.261551</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1">
-        <v>0.347133</v>
+        <v>0.224052</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1">
-        <v>0.271567</v>
+        <v>0.339985</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1">
-        <v>0.305525</v>
+        <v>0.309846</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1">
-        <v>0.289738</v>
+        <v>0.238837</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1">
-        <v>0.309578</v>
+        <v>0.30267700000000003</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1">
-        <v>0.24471999999999997</v>
+        <v>0.27502800000000005</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1">
-        <v>0.337709</v>
+        <v>0.235572</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1">
-        <v>0.347299</v>
+        <v>0.587155</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1">
-        <v>0.256975</v>
+        <v>0.293311</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1">
-        <v>0.281108</v>
+        <v>0.253262</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1">
-        <v>0.272048</v>
+        <v>0.303773</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1">
-        <v>0.260194</v>
+        <v>0.241893</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1">
-        <v>0.304892</v>
+        <v>0.225552</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1">
-        <v>0.31809200000000004</v>
+        <v>0.294224</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1">
-        <v>0.287286</v>
+        <v>0.280501</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1">
-        <v>0.272403</v>
+        <v>0.346757</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1">
-        <v>0.318959</v>
+        <v>0.252708</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1">
-        <v>0.273434</v>
+        <v>0.27502800000000005</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1">
-        <v>0.260449</v>
+        <v>0.253929</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1">
-        <v>0.283803</v>
+        <v>0.291431</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1">
-        <v>0.290339</v>
+        <v>0.278914</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1">
-        <v>0.38884599999999997</v>
+        <v>0.348308</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1">
-        <v>0.302155</v>
+        <v>0.271089</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1">
-        <v>0.28390400000000005</v>
+        <v>0.276199</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1">
-        <v>0.295816</v>
+        <v>0.36295700000000003</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1">
-        <v>0.248055</v>
+        <v>0.281486</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1">
-        <v>0.34052000000000004</v>
+        <v>0.304892</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1">
-        <v>0.31195700000000004</v>
+        <v>0.314038</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1">
-        <v>0.275963</v>
+        <v>0.24891300000000002</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1">
-        <v>0.49839700000000003</v>
+        <v>0.341726</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1">
-        <v>0.277117</v>
+        <v>0.277649</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1">
-        <v>0.343483</v>
+        <v>0.25340300000000004</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1">
-        <v>0.279705</v>
+        <v>0.25242800000000004</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1">
-        <v>0.26373199999999997</v>
+        <v>0.28393</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1">
-        <v>0.29641500000000004</v>
+        <v>0.25843099999999997</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1">
-        <v>0.246997</v>
+        <v>0.343472</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1">
-        <v>0.391378</v>
+        <v>0.394868</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1">
-        <v>0.37214200000000003</v>
+        <v>0.232285</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1">
-        <v>0.338053</v>
+        <v>0.28992599999999996</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1">
-        <v>0.28499599999999997</v>
+        <v>0.293705</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1">
-        <v>0.286984</v>
+        <v>0.26698</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1">
-        <v>0.27897</v>
+        <v>0.233783</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1">
-        <v>0.338123</v>
+        <v>0.226868</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1">
-        <v>0.364419</v>
+        <v>0.37472900000000003</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1">
-        <v>0.256133</v>
+        <v>0.26598900000000003</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1">
-        <v>0.338326</v>
+        <v>0.230739</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1">
-        <v>0.233915</v>
+        <v>0.245341</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1">
-        <v>0.301773</v>
+        <v>0.253896</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1">
-        <v>0.348705</v>
+        <v>0.288029</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1">
-        <v>0.25901199999999996</v>
+        <v>0.280466</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1">
-        <v>0.276455</v>
+        <v>0.319723</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1">
-        <v>0.261332</v>
+        <v>0.361198</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1">
-        <v>0.40152</v>
+        <v>0.279582</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1">
-        <v>0.306462</v>
+        <v>0.23891099999999998</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1">
-        <v>0.445157</v>
+        <v>0.248609</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1">
-        <v>0.255939</v>
+        <v>0.291351</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1">
-        <v>0.293645</v>
+        <v>0.261241</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1">
-        <v>0.27108</v>
+        <v>0.284084</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1">
-        <v>0.30039699999999997</v>
+        <v>0.24031</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1">
-        <v>0.27889800000000003</v>
+        <v>0.29964999999999997</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1">
-        <v>0.28153500000000004</v>
+        <v>0.26966700000000005</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1">
-        <v>0.278502</v>
+        <v>0.299732</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1">
-        <v>0.289827</v>
+        <v>0.33517600000000003</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1">
-        <v>0.323775</v>
+        <v>0.264704</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1">
-        <v>0.21469300000000002</v>
+        <v>0.2384</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1">
-        <v>0.342492</v>
+        <v>0.261938</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1">
-        <v>0.305674</v>
+        <v>0.270079</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1">
-        <v>0.273232</v>
+        <v>0.269902</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1">
-        <v>0.275185</v>
+        <v>0.24096499999999998</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1">
-        <v>0.318988</v>
+        <v>0.239929</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1">
-        <v>0.25397800000000004</v>
+        <v>0.288524</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1">
-        <v>0.37211500000000003</v>
+        <v>0.31001500000000004</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1">
-        <v>0.219423</v>
+        <v>0.26909299999999997</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1">
-        <v>0.16572900000000002</v>
+        <v>0.250056</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1">
-        <v>0.314425</v>
+        <v>0.256923</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1">
-        <v>0.275689</v>
+        <v>0.275957</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1">
-        <v>0.308312</v>
+        <v>0.252372</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1">
-        <v>0.313407</v>
+        <v>0.29059</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1">
-        <v>0.282591</v>
+        <v>0.327437</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1">
-        <v>0.301548</v>
+        <v>0.25627</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1">
-        <v>0.22942300000000002</v>
+        <v>0.458748</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1">
-        <v>0.304404</v>
+        <v>0.341769</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1">
-        <v>0.339712</v>
+        <v>0.327643</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1">
-        <v>0.290911</v>
+        <v>0.26858699999999996</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1">
-        <v>0.28719</v>
+        <v>0.34379499999999996</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1">
-        <v>0.359837</v>
+        <v>0.274666</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1">
-        <v>0.304502</v>
+        <v>0.293276</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1">
-        <v>0.29483200000000004</v>
+        <v>0.262784</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1">
-        <v>0.347787</v>
+        <v>0.259936</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1">
-        <v>0.29094800000000004</v>
+        <v>0.365979</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1">
-        <v>0.320929</v>
+        <v>0.26060900000000004</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1">
-        <v>0.373474</v>
+        <v>0.279671</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1">
-        <v>0.269243</v>
+        <v>0.263428</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1">
-        <v>0.35057699999999997</v>
+        <v>0.276003</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1">
-        <v>0.373724</v>
+        <v>0.30711</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1">
-        <v>0.25521499999999997</v>
+        <v>0.25761799999999996</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1">
-        <v>0.292183</v>
+        <v>0.230585</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1">
-        <v>0.315945</v>
+        <v>0.284219</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1">
-        <v>0.32791</v>
+        <v>0.257117</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1">
-        <v>0.31971</v>
+        <v>0.310288</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1">
-        <v>0.313631</v>
+        <v>0.22876600000000002</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1">
-        <v>0.355138</v>
+        <v>0.305954</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1">
-        <v>0.33165700000000004</v>
+        <v>0.323631</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1">
-        <v>0.260508</v>
+        <v>0.266954</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1">
-        <v>0.25899099999999997</v>
+        <v>0.24929900000000002</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1">
-        <v>0.31435</v>
+        <v>0.26205199999999995</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1">
-        <v>0.280332</v>
+        <v>0.27253</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1">
-        <v>0.31258</v>
+        <v>0.296819</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1">
-        <v>0.293643</v>
+        <v>0.370065</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1">
-        <v>0.300635</v>
+        <v>0.459551</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1">
-        <v>0.274974</v>
+        <v>0.237289</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1">
-        <v>0.28749</v>
+        <v>0.249631</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1">
-        <v>0.26339100000000004</v>
+        <v>0.284618</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1">
-        <v>0.429625</v>
+        <v>0.243604</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1">
-        <v>0.298987</v>
+        <v>0.313166</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1">
-        <v>0.373756</v>
+        <v>0.248605</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1">
-        <v>0.279837</v>
+        <v>0.25875600000000004</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1">
-        <v>0.28701699999999997</v>
+        <v>0.362792</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1">
-        <v>0.35608999999999996</v>
+        <v>0.276262</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="1">
-        <v>0.317631</v>
+        <v>0.256346</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="1">
-        <v>0.320243</v>
+        <v>0.328665</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="1">
-        <v>0.33111399999999996</v>
+        <v>0.30725199999999997</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="1">
-        <v>0.364859</v>
+        <v>0.284677</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="1">
-        <v>0.263117</v>
+        <v>0.280779</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="1">
-        <v>0.271862</v>
+        <v>0.245335</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="1">
-        <v>0.303985</v>
+        <v>0.36831400000000003</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="1">
-        <v>0.295009</v>
+        <v>0.27996899999999997</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="1">
-        <v>0.26044300000000004</v>
+        <v>0.6373359999999999</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="1">
-        <v>0.295065</v>
+        <v>0.261139</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="1">
-        <v>0.282034</v>
+        <v>0.282625</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="1">
-        <v>0.322175</v>
+        <v>0.287516</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="1">
-        <v>0.293416</v>
+        <v>0.235818</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="1">
-        <v>0.35290099999999996</v>
+        <v>0.334828</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="1">
-        <v>0.290216</v>
+        <v>0.303874</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="1">
-        <v>0.400126</v>
+        <v>0.301862</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="1">
-        <v>0.319563</v>
+        <v>0.42863999999999997</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="1">
-        <v>0.322842</v>
+        <v>0.26941299999999996</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="1">
-        <v>0.273242</v>
+        <v>0.286111</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="1">
-        <v>0.320288</v>
+        <v>0.236536</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="1">
-        <v>0.380739</v>
+        <v>0.28926199999999996</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="1">
-        <v>0.314903</v>
+        <v>0.237056</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="1">
-        <v>0.305572</v>
+        <v>0.326663</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="1">
-        <v>0.313563</v>
+        <v>0.24794599999999997</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="1">
-        <v>0.171615</v>
+        <v>0.303783</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="1">
-        <v>0.207064</v>
+        <v>0.25880400000000003</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="1">
-        <v>0.44195999999999996</v>
+        <v>0.27507299999999996</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="1">
-        <v>0.27417199999999997</v>
+        <v>0.452559</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="1">
-        <v>0.376494</v>
+        <v>0.282904</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="1">
-        <v>0.227958</v>
+        <v>0.270557</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="1">
-        <v>0.352136</v>
+        <v>0.320415</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="1">
-        <v>0.25495</v>
+        <v>0.295764</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="1">
-        <v>0.36289</v>
+        <v>0.251154</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="1">
-        <v>0.281665</v>
+        <v>0.286933</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="1">
-        <v>0.370085</v>
+        <v>0.253664</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="1">
-        <v>0.419146</v>
+        <v>0.36184299999999997</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="1">
-        <v>0.317341</v>
+        <v>0.285834</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="1">
-        <v>0.748511</v>
+        <v>0.395914</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="1">
-        <v>0.374486</v>
+        <v>0.24547700000000003</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="1">
-        <v>0.23085599999999998</v>
+        <v>0.260771</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="1">
-        <v>0.37031400000000003</v>
+        <v>0.335735</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="1">
-        <v>0.246984</v>
+        <v>0.248326</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="1">
-        <v>0.2741</v>
+        <v>0.304917</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="1">
-        <v>0.474865</v>
+        <v>0.290762</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="1">
-        <v>0.27833600000000003</v>
+        <v>0.320019</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="1">
-        <v>0.46096899999999996</v>
+        <v>0.27860599999999996</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="1">
-        <v>0.398122</v>
+        <v>0.255843</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="1">
-        <v>0.387917</v>
+        <v>0.24185</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="1">
-        <v>0.262936</v>
+        <v>0.251785</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="1">
-        <v>0.407129</v>
+        <v>0.289102</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="1">
-        <v>0.244728</v>
+        <v>0.23521999999999998</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="1">
-        <v>0.331889</v>
+        <v>0.25586800000000004</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="1">
-        <v>0.25196399999999997</v>
+        <v>0.305307</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="1">
-        <v>0.381472</v>
+        <v>0.322478</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="1">
-        <v>0.28518</v>
+        <v>0.32243700000000003</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="1">
-        <v>0.349773</v>
+        <v>0.29219</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="1">
-        <v>0.302592</v>
+        <v>0.37507799999999997</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="1">
-        <v>0.31134100000000003</v>
+        <v>0.23791700000000002</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="1">
-        <v>0.34137300000000004</v>
+        <v>0.339119</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="1">
-        <v>0.33521799999999996</v>
+        <v>0.237302</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="1">
-        <v>0.283877</v>
+        <v>0.297892</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="1">
-        <v>0.33922899999999995</v>
+        <v>0.273384</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="1">
-        <v>0.293594</v>
+        <v>0.2438</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="1">
-        <v>0.26173599999999997</v>
+        <v>0.267163</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="1">
-        <v>0.26152000000000003</v>
+        <v>0.260788</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="1">
-        <v>0.283212</v>
+        <v>0.317299</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="1">
-        <v>0.261569</v>
+        <v>0.285008</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="1">
-        <v>0.302751</v>
+        <v>0.25316</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="1">
-        <v>0.447409</v>
+        <v>0.23944600000000002</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="1">
-        <v>0.28618699999999997</v>
+        <v>0.240785</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="1">
-        <v>0.29312499999999997</v>
+        <v>0.265173</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="1">
-        <v>0.297948</v>
+        <v>0.288271</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="1">
-        <v>0.272874</v>
+        <v>1.0514050000000001</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="1">
-        <v>0.283619</v>
+        <v>0.237292</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="1">
-        <v>0.257686</v>
+        <v>0.20575</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="1">
-        <v>0.358099</v>
+        <v>0.24587799999999999</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="1">
-        <v>0.24475400000000003</v>
+        <v>0.241917</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="1">
-        <v>0.29353799999999997</v>
+        <v>0.27566999999999997</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="1">
-        <v>0.30676</v>
+        <v>0.241452</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="1">
-        <v>0.377954</v>
+        <v>0.325436</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="1">
-        <v>0.369302</v>
+        <v>0.255963</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="1">
-        <v>0.27859100000000003</v>
+        <v>0.242</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="1">
-        <v>0.31704</v>
+        <v>0.241037</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="1">
-        <v>0.285495</v>
+        <v>0.28505199999999997</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="1">
-        <v>0.303042</v>
+        <v>0.254145</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="1">
-        <v>0.317065</v>
+        <v>0.321009</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="1">
-        <v>0.30733</v>
+        <v>0.35050499999999996</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="1">
-        <v>0.300574</v>
+        <v>0.320105</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="1">
-        <v>0.289271</v>
+        <v>0.406446</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="1">
-        <v>0.29813399999999995</v>
+        <v>0.297488</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="1">
-        <v>0.330117</v>
+        <v>0.267567</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="1">
-        <v>0.32322</v>
+        <v>0.289483</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="1">
-        <v>0.264459</v>
+        <v>0.31359699999999996</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="1">
-        <v>0.27585400000000004</v>
+        <v>0.38653</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="1">
-        <v>0.499903</v>
+        <v>0.255969</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="1">
-        <v>0.27400800000000003</v>
+        <v>0.35275</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="1">
-        <v>0.27956600000000004</v>
+        <v>0.25215699999999996</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="1">
-        <v>0.282683</v>
+        <v>0.33597899999999997</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="1">
-        <v>0.258508</v>
+        <v>0.297363</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="1">
-        <v>0.289871</v>
+        <v>0.23705800000000002</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="1">
-        <v>0.28065</v>
+        <v>0.272227</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="1">
-        <v>0.260635</v>
+        <v>0.259804</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="1">
-        <v>0.368134</v>
+        <v>0.285686</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="1">
-        <v>0.32022700000000004</v>
+        <v>0.297144</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="1">
-        <v>0.22743000000000002</v>
+        <v>0.258821</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="1">
-        <v>0.30221000000000003</v>
+        <v>0.318563</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="1">
-        <v>0.290217</v>
+        <v>0.315206</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="1">
-        <v>0.291246</v>
+        <v>0.21986999999999998</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="1">
-        <v>0.371109</v>
+        <v>0.25314899999999996</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="1">
-        <v>0.306066</v>
+        <v>0.24358</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="1">
-        <v>0.275193</v>
+        <v>0.200202</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="1">
-        <v>0.285751</v>
+        <v>0.252695</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="1">
-        <v>0.33925999999999995</v>
+        <v>0.254031</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="1">
-        <v>0.50887</v>
+        <v>0.232751</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="1">
-        <v>0.220006</v>
+        <v>0.366463</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="1">
-        <v>0.32386600000000004</v>
+        <v>0.347139</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="1">
-        <v>0.40552900000000003</v>
+        <v>0.24880699999999997</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="1">
-        <v>0.265034</v>
+        <v>0.266131</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="1">
-        <v>0.260643</v>
+        <v>0.29522899999999996</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="1">
-        <v>0.277994</v>
+        <v>0.2522</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="1">
-        <v>0.399928</v>
+        <v>0.24854</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="1">
-        <v>0.28465100000000004</v>
+        <v>0.314555</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="1">
-        <v>0.421817</v>
+        <v>0.318602</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="1">
-        <v>0.260603</v>
+        <v>0.325129</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="1">
-        <v>0.317132</v>
+        <v>0.263933</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="1">
-        <v>0.4980470000000001</v>
+        <v>0.296773</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="1">
-        <v>0.3486</v>
+        <v>0.28312299999999996</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="1">
-        <v>0.359135</v>
+        <v>0.366695</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="1">
-        <v>0.374758</v>
+        <v>0.370606</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="1">
-        <v>0.311366</v>
+        <v>0.356124</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="1">
-        <v>0.279835</v>
+        <v>0.282808</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="1">
-        <v>0.350006</v>
+        <v>0.21471</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="1">
-        <v>0.400134</v>
+        <v>0.307208</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="1">
-        <v>0.342092</v>
+        <v>0.365587</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="1">
-        <v>0.29963199999999995</v>
+        <v>0.24459999999999998</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="1">
-        <v>0.256386</v>
+        <v>0.24188300000000001</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="1">
-        <v>0.325979</v>
+        <v>0.26798099999999997</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="1">
-        <v>0.288914</v>
+        <v>0.25040799999999996</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="1">
-        <v>0.270617</v>
+        <v>0.330536</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="1">
-        <v>0.292754</v>
+        <v>0.294585</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="1">
-        <v>0.304754</v>
+        <v>0.290613</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="1">
-        <v>0.266171</v>
+        <v>0.332384</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="1">
-        <v>0.3565</v>
+        <v>0.236513</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="1">
-        <v>0.293267</v>
+        <v>0.261772</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="1">
-        <v>0.278184</v>
+        <v>0.238176</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="1">
-        <v>0.296296</v>
+        <v>0.28216899999999995</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="1">
-        <v>0.300722</v>
+        <v>0.27846499999999996</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="1">
-        <v>0.403937</v>
+        <v>0.280301</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="1">
-        <v>0.389937</v>
+        <v>0.25769200000000003</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="1">
-        <v>0.333212</v>
+        <v>0.30379</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="1">
-        <v>0.315344</v>
+        <v>0.38894500000000004</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="1">
-        <v>0.291077</v>
+        <v>0.24639699999999998</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="1">
-        <v>0.336069</v>
+        <v>0.23689</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="1">
-        <v>0.33354</v>
+        <v>0.318235</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="1">
-        <v>0.367058</v>
+        <v>0.268138</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="1">
-        <v>0.274131</v>
+        <v>0.16611800000000002</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="1">
-        <v>0.330634</v>
+        <v>0.27405399999999996</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="1">
-        <v>0.30323500000000003</v>
+        <v>0.339371</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="1">
-        <v>0.287746</v>
+        <v>0.267266</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="1">
-        <v>0.288557</v>
+        <v>0.265163</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="1">
-        <v>0.264911</v>
+        <v>0.275302</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="1">
-        <v>0.312717</v>
+        <v>0.256455</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="1">
-        <v>0.364797</v>
+        <v>0.26267100000000004</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="1">
-        <v>0.25967999999999997</v>
+        <v>0.25936600000000004</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="1">
-        <v>0.322106</v>
+        <v>0.312747</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="1">
-        <v>0.26217999999999997</v>
+        <v>0.23976</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="1">
-        <v>0.280666</v>
+        <v>0.32504</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="1">
-        <v>0.300306</v>
+        <v>0.222108</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="1">
-        <v>0.26369099999999995</v>
+        <v>0.27296</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="1">
-        <v>0.34169099999999997</v>
+        <v>0.25093499999999996</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="1">
-        <v>0.456506</v>
+        <v>0.270866</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="1">
-        <v>0.334311</v>
+        <v>0.284074</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="1">
-        <v>0.25672500000000004</v>
+        <v>0.307706</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="1">
-        <v>0.314986</v>
+        <v>0.30452</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="1">
-        <v>0.307188</v>
+        <v>0.265107</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="1">
-        <v>0.273977</v>
+        <v>0.286104</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="1">
-        <v>0.33380600000000005</v>
+        <v>0.232037</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="1">
-        <v>0.286826</v>
+        <v>0.276742</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="1">
-        <v>0.284895</v>
+        <v>0.23949499999999999</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="1">
-        <v>0.30084000000000005</v>
+        <v>0.258388</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="1">
-        <v>0.334754</v>
+        <v>0.24321</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="1">
-        <v>0.424989</v>
+        <v>0.257443</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="1">
-        <v>0.341351</v>
+        <v>0.322556</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="1">
-        <v>0.266069</v>
+        <v>0.38276</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="1">
-        <v>0.312347</v>
+        <v>0.275315</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="1">
-        <v>0.263554</v>
+        <v>0.275907</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="1">
-        <v>0.2877</v>
+        <v>0.236578</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="1">
-        <v>0.28577</v>
+        <v>0.40512000000000004</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="1">
-        <v>0.30384</v>
+        <v>0.30032000000000003</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="1">
-        <v>0.30234</v>
+        <v>0.20381</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="1">
-        <v>0.283005</v>
+        <v>0.254935</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="1">
-        <v>0.27817000000000003</v>
+        <v>0.28213</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="1">
-        <v>0.275432</v>
+        <v>0.24802800000000003</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="1">
-        <v>0.329353</v>
+        <v>0.27142499999999997</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="1">
-        <v>0.325874</v>
+        <v>0.286852</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="1">
-        <v>0.30451700000000004</v>
+        <v>0.31407199999999996</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="1">
-        <v>0.368275</v>
+        <v>0.395246</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="1">
-        <v>0.251543</v>
+        <v>0.28172800000000003</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="1">
-        <v>0.311491</v>
+        <v>0.26675800000000005</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="1">
-        <v>0.273026</v>
+        <v>0.25919000000000003</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="1">
-        <v>0.379811</v>
+        <v>0.24282199999999998</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="1">
-        <v>0.283423</v>
+        <v>0.25004299999999996</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="1">
-        <v>0.41152700000000003</v>
+        <v>0.239695</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="1">
-        <v>0.26324</v>
+        <v>0.388237</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="1">
-        <v>0.323554</v>
+        <v>0.28066199999999997</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="1">
-        <v>0.29128299999999996</v>
+        <v>0.241459</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="1">
-        <v>0.29165199999999997</v>
+        <v>0.24920600000000004</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="1">
-        <v>0.28102900000000003</v>
+        <v>0.246745</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="1">
-        <v>0.31201999999999996</v>
+        <v>0.256258</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="1">
-        <v>0.281986</v>
+        <v>0.296367</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="1">
-        <v>0.281337</v>
+        <v>0.303733</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="1">
-        <v>0.330812</v>
+        <v>0.272468</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="1">
-        <v>0.42891</v>
+        <v>0.251868</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="1">
-        <v>0.297431</v>
+        <v>0.302379</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="1">
-        <v>0.28385299999999997</v>
+        <v>0.250384</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="1">
-        <v>0.31030199999999997</v>
+        <v>0.297203</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="1">
-        <v>0.265869</v>
+        <v>0.34340899999999996</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="1">
-        <v>0.30608</v>
+        <v>0.34349199999999996</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="1">
-        <v>0.322154</v>
+        <v>0.271157</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="1">
-        <v>0.292891</v>
+        <v>0.237612</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="1">
-        <v>0.327437</v>
+        <v>0.28720599999999996</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="1">
-        <v>0.22885</v>
+        <v>0.234819</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="1">
-        <v>0.308151</v>
+        <v>0.306871</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="1">
-        <v>0.274911</v>
+        <v>0.29628899999999997</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="1">
-        <v>0.28886500000000004</v>
+        <v>0.349142</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="1">
-        <v>0.271718</v>
+        <v>0.294346</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="1">
-        <v>0.266154</v>
+        <v>0.279843</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="1">
-        <v>0.281643</v>
+        <v>0.26769</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="1">
-        <v>0.591307</v>
+        <v>0.251643</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="1">
-        <v>0.310654</v>
+        <v>0.282452</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="1">
-        <v>0.30874</v>
+        <v>0.269345</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="1">
-        <v>0.283951</v>
+        <v>0.22931</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="1">
-        <v>0.330902</v>
+        <v>0.241437</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="1">
-        <v>0.320918</v>
+        <v>0.402576</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="1">
-        <v>0.304771</v>
+        <v>0.258345</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="1">
-        <v>0.323841</v>
+        <v>0.35902500000000004</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="1">
-        <v>0.31566500000000003</v>
+        <v>0.328255</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="1">
-        <v>0.274989</v>
+        <v>0.34436900000000004</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="1">
-        <v>0.457131</v>
+        <v>0.355754</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="1">
-        <v>0.304563</v>
+        <v>0.297668</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="1">
-        <v>0.316731</v>
+        <v>0.335233</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="1">
-        <v>0.311997</v>
+        <v>0.331299</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="1">
-        <v>0.309771</v>
+        <v>0.15639199999999998</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="1">
-        <v>0.260786</v>
+        <v>0.160058</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="1">
-        <v>0.38988199999999995</v>
+        <v>0.20399</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="1">
-        <v>0.38392899999999996</v>
+        <v>0.260187</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="1">
-        <v>0.278163</v>
+        <v>0.282923</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="1">
-        <v>0.2834</v>
+        <v>0.36350299999999997</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="1">
-        <v>0.28880300000000003</v>
+        <v>0.305768</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="1">
-        <v>0.369969</v>
+        <v>0.26495799999999997</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="1">
-        <v>0.28518</v>
+        <v>0.25129599999999996</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="1">
-        <v>0.29352300000000003</v>
+        <v>0.295889</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="1">
-        <v>0.343295</v>
+        <v>0.23479999999999998</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="1">
-        <v>0.333307</v>
+        <v>0.393188</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="1">
-        <v>0.26179399999999997</v>
+        <v>0.24742999999999998</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="1">
-        <v>0.316825</v>
+        <v>0.24550800000000003</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="1">
-        <v>0.25084</v>
+        <v>0.242175</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="1">
-        <v>0.31243</v>
+        <v>0.256335</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="1">
-        <v>0.313437</v>
+        <v>0.736915</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="1">
-        <v>0.497396</v>
+        <v>0.24623599999999998</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1">
-        <v>0.25828599999999996</v>
+        <v>0.468065</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1">
-        <v>0.274323</v>
+        <v>0.24776000000000004</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1">
-        <v>0.334709</v>
+        <v>0.280171</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1">
-        <v>0.27396000000000004</v>
+        <v>0.22124300000000002</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1">
-        <v>0.335887</v>
+        <v>0.34480500000000003</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1">
-        <v>0.382246</v>
+        <v>0.24424700000000002</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1">
-        <v>0.527578</v>
+        <v>0.275612</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1">
-        <v>0.220636</v>
+        <v>0.31348</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1">
-        <v>0.35047399999999995</v>
+        <v>0.29318500000000003</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1">
-        <v>0.309388</v>
+        <v>0.254803</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1">
-        <v>0.39873699999999995</v>
+        <v>0.39909</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1">
-        <v>0.261469</v>
+        <v>0.34288</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1">
-        <v>0.364699</v>
+        <v>0.25217</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1">
-        <v>0.28232399999999996</v>
+        <v>0.24454</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1">
-        <v>0.39665700000000004</v>
+        <v>0.250815</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1">
-        <v>0.296194</v>
+        <v>0.239012</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1">
-        <v>0.7188640000000001</v>
+        <v>0.238896</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1">
-        <v>0.295452</v>
+        <v>0.340805</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1">
-        <v>0.41872</v>
+        <v>0.357164</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1">
-        <v>0.368217</v>
+        <v>0.286473</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1">
-        <v>0.514312</v>
+        <v>0.249008</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1">
-        <v>0.302817</v>
+        <v>0.39408299999999996</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1">
-        <v>0.35564</v>
+        <v>0.255163</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1">
-        <v>0.293489</v>
+        <v>0.268424</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1">
-        <v>0.334511</v>
+        <v>0.303017</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1">
-        <v>0.220958</v>
+        <v>0.27486</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1">
-        <v>0.511641</v>
+        <v>0.335182</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1">
-        <v>0.241816</v>
+        <v>0.248936</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1">
-        <v>0.30287800000000004</v>
+        <v>0.24894499999999997</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1">
-        <v>0.30957</v>
+        <v>0.227071</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1">
-        <v>0.33673200000000003</v>
+        <v>0.239234</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1">
-        <v>0.25784</v>
+        <v>0.30907</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1">
-        <v>0.455868</v>
+        <v>0.32260900000000003</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1">
-        <v>0.273594</v>
+        <v>0.255382</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1">
-        <v>0.313626</v>
+        <v>0.244619</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1">
-        <v>0.281063</v>
+        <v>0.241739</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1">
-        <v>0.228144</v>
+        <v>0.263748</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1">
-        <v>0.251446</v>
+        <v>0.28794200000000003</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1">
-        <v>0.311917</v>
+        <v>0.26140599999999997</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1">
-        <v>0.300971</v>
+        <v>0.285615</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1">
-        <v>0.461082</v>
+        <v>0.27305599999999997</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1">
-        <v>0.36254400000000003</v>
+        <v>0.396487</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1">
-        <v>0.274165</v>
+        <v>0.264893</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1">
-        <v>0.278077</v>
+        <v>0.28552900000000003</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1">
-        <v>0.28315</v>
+        <v>0.234778</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1">
-        <v>0.342877</v>
+        <v>0.264377</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1">
-        <v>0.418957</v>
+        <v>0.283686</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1">
-        <v>0.272729</v>
+        <v>0.248883</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1">
-        <v>0.47250200000000003</v>
+        <v>0.31988999999999995</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1">
-        <v>0.28942399999999996</v>
+        <v>0.32870499999999997</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1">
-        <v>0.27434600000000003</v>
+        <v>0.26366999999999996</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1">
-        <v>0.244485</v>
+        <v>0.272087</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1">
-        <v>0.36014100000000004</v>
+        <v>0.318806</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1">
-        <v>0.31409</v>
+        <v>0.232154</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1">
-        <v>0.31302</v>
+        <v>0.292296</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1">
-        <v>0.269963</v>
+        <v>0.270667</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1">
-        <v>0.36788</v>
+        <v>0.20772600000000002</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1">
-        <v>0.341594</v>
+        <v>0.307794</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="1">
-        <v>0.318948</v>
+        <v>0.247759</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1">
-        <v>0.27498300000000003</v>
+        <v>0.311249</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1">
-        <v>0.36755099999999996</v>
+        <v>0.248877</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="1">
-        <v>0.277516</v>
+        <v>0.246387</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="1">
-        <v>0.286329</v>
+        <v>0.284504</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="1">
-        <v>0.249332</v>
+        <v>0.24283400000000002</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="1">
-        <v>0.353613</v>
+        <v>0.261615</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="1">
-        <v>0.230183</v>
+        <v>0.372052</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="1">
-        <v>0.280428</v>
+        <v>0.22733</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="1">
-        <v>0.258328</v>
+        <v>0.27635000000000004</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="1">
-        <v>0.258562</v>
+        <v>0.26857600000000004</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="1">
-        <v>0.339345</v>
+        <v>0.382849</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="1">
-        <v>0.312009</v>
+        <v>0.29226399999999997</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="1">
-        <v>0.389108</v>
+        <v>0.279456</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="1">
-        <v>0.302295</v>
+        <v>0.315049</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="1">
-        <v>0.342</v>
+        <v>0.27002</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="1">
-        <v>0.280986</v>
+        <v>0.287757</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="1">
-        <v>0.255198</v>
+        <v>0.24465499999999998</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="1">
-        <v>0.28260399999999997</v>
+        <v>0.3014</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="1">
-        <v>0.26866999999999996</v>
+        <v>0.241874</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="1">
-        <v>0.25993099999999997</v>
+        <v>0.2382</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="1">
-        <v>0.231863</v>
+        <v>0.23488299999999998</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="1">
-        <v>0.226902</v>
+        <v>0.29072400000000004</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="1">
-        <v>0.169458</v>
+        <v>0.306083</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="1">
-        <v>0.341976</v>
+        <v>0.605224</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="1">
-        <v>0.31082</v>
+        <v>0.307847</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="1">
-        <v>0.366786</v>
+        <v>0.273483</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="1">
-        <v>0.270474</v>
+        <v>0.26628999999999997</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="1">
-        <v>0.305997</v>
+        <v>0.300529</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="1">
-        <v>0.317705</v>
+        <v>0.284636</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="1">
-        <v>0.898157</v>
+        <v>0.31654699999999997</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="1">
-        <v>0.330783</v>
+        <v>0.31955500000000003</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="1">
-        <v>0.419246</v>
+        <v>0.36223</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="1">
-        <v>0.263174</v>
+        <v>0.28237999999999996</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="1">
-        <v>0.320012</v>
+        <v>0.339675</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="1">
-        <v>0.2576</v>
+        <v>0.291167</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="1">
-        <v>0.433425</v>
+        <v>0.25269</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="1">
-        <v>0.24469</v>
+        <v>0.290789</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="1">
-        <v>0.269669</v>
+        <v>0.216968</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="1">
-        <v>0.36039699999999997</v>
+        <v>0.252895</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="1">
-        <v>0.21733</v>
+        <v>0.260387</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="1">
-        <v>0.463081</v>
+        <v>0.312909</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="1">
-        <v>0.23785799999999999</v>
+        <v>0.308881</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="1">
-        <v>0.508097</v>
+        <v>0.340178</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="1">
-        <v>0.33364</v>
+        <v>0.269276</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="1">
-        <v>0.255923</v>
+        <v>0.27054100000000003</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="1">
-        <v>0.34304</v>
+        <v>0.250323</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="1">
-        <v>0.270932</v>
+        <v>0.26194199999999995</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="1">
-        <v>0.37771099999999996</v>
+        <v>0.215113</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="1">
-        <v>0.25857199999999997</v>
+        <v>0.29363300000000003</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="1">
-        <v>0.282053</v>
+        <v>0.277822</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="1">
-        <v>0.276497</v>
+        <v>0.294473</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="1">
-        <v>0.59198</v>
+        <v>0.268542</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="1">
-        <v>0.24531999999999998</v>
+        <v>0.24592</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="1">
-        <v>0.445345</v>
+        <v>0.249068</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="1">
-        <v>0.376275</v>
+        <v>0.289378</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="1">
-        <v>0.58306</v>
+        <v>0.238704</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="1">
-        <v>0.181498</v>
+        <v>0.26749199999999995</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="1">
-        <v>0.314852</v>
+        <v>0.27627100000000004</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="1">
-        <v>0.377509</v>
+        <v>0.22716899999999998</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" s="1">
-        <v>0.26827300000000004</v>
+        <v>0.267676</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" s="1">
-        <v>0.238582</v>
+        <v>0.27389800000000003</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" s="1">
-        <v>0.324757</v>
+        <v>0.240705</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" s="1">
-        <v>0.290904</v>
+        <v>0.316687</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" s="1">
-        <v>0.348043</v>
+        <v>0.300449</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" s="1">
-        <v>0.26081</v>
+        <v>0.303076</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" s="1">
-        <v>0.450478</v>
+        <v>0.310081</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" s="1">
-        <v>0.259162</v>
+        <v>0.247181</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" s="1">
-        <v>0.371777</v>
+        <v>0.265227</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" s="1">
-        <v>0.246352</v>
+        <v>0.224809</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" s="1">
-        <v>0.312338</v>
+        <v>0.26322900000000005</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" s="1">
-        <v>0.26138700000000004</v>
+        <v>0.239991</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" s="1">
-        <v>0.338363</v>
+        <v>0.286231</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" s="1">
-        <v>0.31678700000000004</v>
+        <v>0.233945</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" s="1">
-        <v>0.2897</v>
+        <v>0.289752</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" s="1">
-        <v>0.271957</v>
+        <v>0.24533999999999997</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" s="1">
-        <v>0.463938</v>
+        <v>0.37835100000000005</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" s="1">
-        <v>0.264027</v>
+        <v>0.257963</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" s="1">
-        <v>0.419872</v>
+        <v>0.344643</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" s="1">
-        <v>0.30826</v>
+        <v>0.269744</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" s="1">
-        <v>0.394387</v>
+        <v>0.383314</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" s="1">
-        <v>0.308006</v>
+        <v>0.242311</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" s="1">
-        <v>0.36283099999999996</v>
+        <v>0.29798800000000003</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" s="1">
-        <v>0.307842</v>
+        <v>0.279464</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" s="1">
-        <v>0.369547</v>
+        <v>0.203922</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" s="1">
-        <v>0.26419600000000004</v>
+        <v>0.24420000000000003</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" s="1">
-        <v>0.275294</v>
+        <v>0.25851999999999997</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" s="1">
-        <v>0.340864</v>
+        <v>0.317049</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" s="1">
-        <v>0.233835</v>
+        <v>0.306643</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" s="1">
-        <v>0.28652</v>
+        <v>0.25976200000000005</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" s="1">
-        <v>0.29007</v>
+        <v>0.241538</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" s="1">
-        <v>0.312524</v>
+        <v>0.231955</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" s="1">
-        <v>0.27178199999999997</v>
+        <v>0.242191</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" s="1">
-        <v>0.301427</v>
+        <v>0.26304900000000003</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" s="1">
-        <v>0.35562499999999997</v>
+        <v>0.306912</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" s="1">
-        <v>0.209584</v>
+        <v>0.258185</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" s="1">
-        <v>0.297188</v>
+        <v>0.252172</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" s="1">
-        <v>0.287263</v>
+        <v>0.238581</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" s="1">
-        <v>0.342215</v>
+        <v>0.259281</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" s="1">
-        <v>0.23479</v>
+        <v>0.336295</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" s="1">
-        <v>0.33227</v>
+        <v>0.285068</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" s="1">
-        <v>0.17929299999999998</v>
+        <v>0.239819</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" s="1">
-        <v>0.253538</v>
+        <v>0.247011</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" s="1">
-        <v>0.303816</v>
+        <v>0.24117100000000002</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" s="1">
-        <v>0.18117</v>
+        <v>0.28075700000000003</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" s="1">
-        <v>0.32033</v>
+        <v>0.300794</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" s="1">
-        <v>0.32558499999999996</v>
+        <v>0.310812</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" s="1">
-        <v>0.176242</v>
+        <v>0.24312899999999998</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" s="1">
-        <v>0.328736</v>
+        <v>0.2294</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" s="1">
-        <v>0.304425</v>
+        <v>0.232371</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" s="1">
-        <v>0.169578</v>
+        <v>0.277854</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" s="1">
-        <v>0.333298</v>
+        <v>0.25596</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" s="1">
-        <v>0.291735</v>
+        <v>0.336203</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" s="1">
-        <v>0.214812</v>
+        <v>0.285412</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" s="1">
-        <v>0.444828</v>
+        <v>0.209526</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" s="1">
-        <v>0.23469199999999998</v>
+        <v>0.242385</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" s="1">
-        <v>0.27959399999999995</v>
+        <v>0.35292199999999996</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" s="1">
-        <v>0.24906499999999998</v>
+        <v>0.27546</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" s="1">
-        <v>0.288874</v>
+        <v>0.307126</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" s="1">
-        <v>0.206182</v>
+        <v>0.28630300000000003</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" s="1">
-        <v>0.363036</v>
+        <v>0.34339499999999995</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" s="1">
-        <v>0.281815</v>
+        <v>0.292674</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" s="1">
-        <v>0.347082</v>
+        <v>0.28664</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" s="1">
-        <v>0.340047</v>
+        <v>0.24020000000000002</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" s="1">
-        <v>0.363278</v>
+        <v>0.320669</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" s="1">
-        <v>0.344719</v>
+        <v>0.280525</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" s="1">
-        <v>0.257417</v>
+        <v>0.255714</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" s="1">
-        <v>0.35338200000000003</v>
+        <v>0.49856</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" s="1">
-        <v>0.252988</v>
+        <v>0.238797</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" s="1">
-        <v>0.279843</v>
+        <v>0.282256</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" s="1">
-        <v>0.309019</v>
+        <v>0.27233</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" s="1">
-        <v>0.278788</v>
+        <v>0.258017</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" s="1">
-        <v>0.27757699999999996</v>
+        <v>0.287072</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" s="1">
-        <v>0.349474</v>
+        <v>0.32036</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" s="1">
-        <v>0.37455700000000003</v>
+        <v>0.26431000000000004</v>
       </c>
     </row>
     <row r="719">
       <c r="A719" s="1">
-        <v>0.280708</v>
+        <v>0.251056</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" s="1">
-        <v>0.26486499999999996</v>
+        <v>0.27901</v>
       </c>
     </row>
     <row r="721">
       <c r="A721" s="1">
-        <v>0.31098200000000004</v>
+        <v>0.247154</v>
       </c>
     </row>
     <row r="722">
       <c r="A722" s="1">
-        <v>0.298484</v>
+        <v>0.24244300000000002</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" s="1">
-        <v>0.448524</v>
+        <v>0.279929</v>
       </c>
     </row>
     <row r="724">
       <c r="A724" s="1">
-        <v>0.256806</v>
+        <v>0.310411</v>
       </c>
     </row>
     <row r="725">
       <c r="A725" s="1">
-        <v>0.49436599999999997</v>
+        <v>0.307918</v>
       </c>
     </row>
     <row r="726">
       <c r="A726" s="1">
-        <v>0.24193599999999998</v>
+        <v>0.252818</v>
       </c>
     </row>
     <row r="727">
       <c r="A727" s="1">
-        <v>0.28620700000000004</v>
+        <v>0.26400799999999996</v>
       </c>
     </row>
     <row r="728">
       <c r="A728" s="1">
-        <v>0.252405</v>
+        <v>0.33649500000000004</v>
       </c>
     </row>
     <row r="729">
       <c r="A729" s="1">
-        <v>0.30791</v>
+        <v>0.241326</v>
       </c>
     </row>
     <row r="730">
       <c r="A730" s="1">
-        <v>0.266397</v>
+        <v>0.28393599999999997</v>
       </c>
     </row>
     <row r="731">
       <c r="A731" s="1">
-        <v>0.27219499999999996</v>
+        <v>0.35430900000000004</v>
       </c>
     </row>
     <row r="732">
       <c r="A732" s="1">
-        <v>0.25026699999999996</v>
+        <v>0.24156899999999998</v>
       </c>
     </row>
     <row r="733">
       <c r="A733" s="1">
-        <v>0.314467</v>
+        <v>0.276689</v>
       </c>
     </row>
     <row r="734">
       <c r="A734" s="1">
-        <v>0.240842</v>
+        <v>0.260736</v>
       </c>
     </row>
     <row r="735">
       <c r="A735" s="1">
-        <v>0.308702</v>
+        <v>0.26294300000000004</v>
       </c>
     </row>
     <row r="736">
       <c r="A736" s="1">
-        <v>0.32193499999999997</v>
+        <v>0.31674300000000005</v>
       </c>
     </row>
     <row r="737">
       <c r="A737" s="1">
-        <v>0.355244</v>
+        <v>0.274446</v>
       </c>
     </row>
     <row r="738">
       <c r="A738" s="1">
-        <v>0.24838</v>
+        <v>0.27143399999999995</v>
       </c>
     </row>
     <row r="739">
       <c r="A739" s="1">
-        <v>0.270694</v>
+        <v>0.351449</v>
       </c>
     </row>
     <row r="740">
       <c r="A740" s="1">
-        <v>0.262652</v>
+        <v>0.295075</v>
       </c>
     </row>
     <row r="741">
       <c r="A741" s="1">
-        <v>0.28157</v>
+        <v>0.29858</v>
       </c>
     </row>
     <row r="742">
       <c r="A742" s="1">
-        <v>0.24993500000000002</v>
+        <v>0.398466</v>
       </c>
     </row>
     <row r="743">
       <c r="A743" s="1">
-        <v>0.272028</v>
+        <v>0.26248</v>
       </c>
     </row>
     <row r="744">
       <c r="A744" s="1">
-        <v>0.158634</v>
+        <v>0.220084</v>
       </c>
     </row>
     <row r="745">
       <c r="A745" s="1">
-        <v>0.316838</v>
+        <v>0.27858</v>
       </c>
     </row>
     <row r="746">
       <c r="A746" s="1">
-        <v>0.31037000000000003</v>
+        <v>0.252552</v>
       </c>
     </row>
     <row r="747">
       <c r="A747" s="1">
-        <v>0.396032</v>
+        <v>0.294835</v>
       </c>
     </row>
     <row r="748">
       <c r="A748" s="1">
-        <v>0.29185</v>
+        <v>0.356543</v>
       </c>
     </row>
     <row r="749">
       <c r="A749" s="1">
-        <v>0.322236</v>
+        <v>0.237289</v>
       </c>
     </row>
     <row r="750">
       <c r="A750" s="1">
-        <v>0.287615</v>
+        <v>0.267922</v>
       </c>
     </row>
     <row r="751">
       <c r="A751" s="1">
-        <v>0.535335</v>
+        <v>0.30519999999999997</v>
       </c>
     </row>
     <row r="752">
       <c r="A752" s="1">
-        <v>0.266729</v>
+        <v>0.24779100000000004</v>
       </c>
     </row>
     <row r="753">
       <c r="A753" s="1">
-        <v>0.40639000000000003</v>
+        <v>0.236308</v>
       </c>
     </row>
     <row r="754">
       <c r="A754" s="1">
-        <v>0.285741</v>
+        <v>0.24794900000000003</v>
       </c>
     </row>
     <row r="755">
       <c r="A755" s="1">
-        <v>0.323967</v>
+        <v>0.253029</v>
       </c>
     </row>
     <row r="756">
       <c r="A756" s="1">
-        <v>0.245043</v>
+        <v>0.2497</v>
       </c>
     </row>
     <row r="757">
       <c r="A757" s="1">
-        <v>0.503851</v>
+        <v>0.28511200000000003</v>
       </c>
     </row>
     <row r="758">
       <c r="A758" s="1">
-        <v>0.28252000000000005</v>
+        <v>0.271814</v>
       </c>
     </row>
     <row r="759">
       <c r="A759" s="1">
-        <v>0.35469</v>
+        <v>0.261745</v>
       </c>
     </row>
     <row r="760">
       <c r="A760" s="1">
-        <v>0.234568</v>
+        <v>0.286708</v>
       </c>
     </row>
     <row r="761">
       <c r="A761" s="1">
-        <v>0.340167</v>
+        <v>0.239077</v>
       </c>
     </row>
     <row r="762">
       <c r="A762" s="1">
-        <v>0.299192</v>
+        <v>0.28139400000000003</v>
       </c>
     </row>
     <row r="763">
       <c r="A763" s="1">
-        <v>0.274037</v>
+        <v>0.257374</v>
       </c>
     </row>
     <row r="764">
       <c r="A764" s="1">
-        <v>0.394232</v>
+        <v>0.29543800000000003</v>
       </c>
     </row>
     <row r="765">
       <c r="A765" s="1">
-        <v>0.326038</v>
+        <v>0.231269</v>
       </c>
     </row>
     <row r="766">
       <c r="A766" s="1">
-        <v>0.23339000000000001</v>
+        <v>0.32346600000000003</v>
       </c>
     </row>
     <row r="767">
       <c r="A767" s="1">
-        <v>0.30304000000000003</v>
+        <v>0.238963</v>
       </c>
     </row>
     <row r="768">
       <c r="A768" s="1">
-        <v>0.27310799999999996</v>
+        <v>0.265793</v>
       </c>
     </row>
     <row r="769">
       <c r="A769" s="1">
-        <v>0.429424</v>
+        <v>0.272228</v>
       </c>
     </row>
     <row r="770">
       <c r="A770" s="1">
-        <v>0.294007</v>
+        <v>0.241594</v>
       </c>
     </row>
     <row r="771">
       <c r="A771" s="1">
-        <v>0.896481</v>
+        <v>0.29632600000000003</v>
       </c>
     </row>
     <row r="772">
       <c r="A772" s="1">
-        <v>0.20377399999999998</v>
+        <v>0.249721</v>
       </c>
     </row>
     <row r="773">
       <c r="A773" s="1">
-        <v>0.18621</v>
+        <v>0.248074</v>
       </c>
     </row>
     <row r="774">
       <c r="A774" s="1">
-        <v>0.476885</v>
+        <v>0.237574</v>
       </c>
     </row>
     <row r="775">
       <c r="A775" s="1">
-        <v>0.13433</v>
+        <v>0.242708</v>
       </c>
     </row>
     <row r="776">
       <c r="A776" s="1">
-        <v>0.355381</v>
+        <v>0.345714</v>
       </c>
     </row>
     <row r="777">
       <c r="A777" s="1">
-        <v>0.359268</v>
+        <v>0.25761799999999996</v>
       </c>
     </row>
     <row r="778">
       <c r="A778" s="1">
-        <v>0.304024</v>
+        <v>0.263604</v>
       </c>
     </row>
     <row r="779">
       <c r="A779" s="1">
-        <v>0.28204599999999996</v>
+        <v>0.439197</v>
       </c>
     </row>
     <row r="780">
       <c r="A780" s="1">
-        <v>0.318449</v>
+        <v>0.28590899999999997</v>
       </c>
     </row>
     <row r="781">
       <c r="A781" s="1">
-        <v>0.23364300000000002</v>
+        <v>0.284029</v>
       </c>
     </row>
     <row r="782">
       <c r="A782" s="1">
-        <v>0.217444</v>
+        <v>0.304911</v>
       </c>
     </row>
     <row r="783">
       <c r="A783" s="1">
-        <v>0.187368</v>
+        <v>0.288375</v>
       </c>
     </row>
     <row r="784">
       <c r="A784" s="1">
-        <v>0.179185</v>
+        <v>0.278935</v>
       </c>
     </row>
     <row r="785">
       <c r="A785" s="1">
-        <v>0.281432</v>
+        <v>0.303437</v>
       </c>
     </row>
     <row r="786">
       <c r="A786" s="1">
-        <v>0.29576</v>
+        <v>0.43516</v>
       </c>
     </row>
     <row r="787">
       <c r="A787" s="1">
-        <v>0.17234</v>
+        <v>0.256917</v>
       </c>
     </row>
     <row r="788">
       <c r="A788" s="1">
-        <v>0.31222500000000003</v>
+        <v>0.238526</v>
       </c>
     </row>
     <row r="789">
       <c r="A789" s="1">
-        <v>0.293348</v>
+        <v>0.24877599999999997</v>
       </c>
     </row>
     <row r="790">
       <c r="A790" s="1">
-        <v>0.302126</v>
+        <v>0.23255800000000001</v>
       </c>
     </row>
     <row r="791">
       <c r="A791" s="1">
-        <v>0.27335499999999996</v>
+        <v>0.27391299999999996</v>
       </c>
     </row>
     <row r="792">
       <c r="A792" s="1">
-        <v>0.227605</v>
+        <v>0.29532</v>
       </c>
     </row>
     <row r="793">
       <c r="A793" s="1">
-        <v>0.339779</v>
+        <v>0.302091</v>
       </c>
     </row>
     <row r="794">
       <c r="A794" s="1">
-        <v>0.215315</v>
+        <v>0.299669</v>
       </c>
     </row>
     <row r="795">
       <c r="A795" s="1">
-        <v>0.349822</v>
+        <v>0.296143</v>
       </c>
     </row>
     <row r="796">
       <c r="A796" s="1">
-        <v>0.26015499999999997</v>
+        <v>0.26176</v>
       </c>
     </row>
     <row r="797">
       <c r="A797" s="1">
-        <v>0.363429</v>
+        <v>0.301731</v>
       </c>
     </row>
     <row r="798">
       <c r="A798" s="1">
-        <v>0.22314799999999999</v>
+        <v>0.276696</v>
       </c>
     </row>
     <row r="799">
       <c r="A799" s="1">
-        <v>0.35437</v>
+        <v>0.23714</v>
       </c>
     </row>
     <row r="800">
       <c r="A800" s="1">
-        <v>0.18008</v>
+        <v>0.295155</v>
       </c>
     </row>
     <row r="801">
       <c r="A801" s="1">
-        <v>0.276769</v>
+        <v>0.298057</v>
       </c>
     </row>
     <row r="802">
       <c r="A802" s="1">
-        <v>0.155458</v>
+        <v>0.276454</v>
       </c>
     </row>
     <row r="803">
       <c r="A803" s="1">
-        <v>0.37343499999999996</v>
+        <v>0.23626</v>
       </c>
     </row>
     <row r="804">
       <c r="A804" s="1">
-        <v>0.461212</v>
+        <v>0.40515100000000004</v>
       </c>
     </row>
     <row r="805">
       <c r="A805" s="1">
-        <v>0.27464299999999997</v>
+        <v>0.222112</v>
       </c>
     </row>
     <row r="806">
       <c r="A806" s="1">
-        <v>0.333145</v>
+        <v>0.243304</v>
       </c>
     </row>
     <row r="807">
       <c r="A807" s="1">
-        <v>0.354572</v>
+        <v>0.25973199999999996</v>
       </c>
     </row>
     <row r="808">
       <c r="A808" s="1">
-        <v>0.256597</v>
+        <v>0.3687</v>
       </c>
     </row>
     <row r="809">
       <c r="A809" s="1">
-        <v>0.261868</v>
+        <v>0.26123999999999997</v>
       </c>
     </row>
     <row r="810">
       <c r="A810" s="1">
-        <v>0.267985</v>
+        <v>0.23192300000000002</v>
       </c>
     </row>
     <row r="811">
       <c r="A811" s="1">
-        <v>0.21862199999999998</v>
+        <v>0.240588</v>
       </c>
     </row>
     <row r="812">
       <c r="A812" s="1">
-        <v>0.162506</v>
+        <v>0.301699</v>
       </c>
     </row>
     <row r="813">
       <c r="A813" s="1">
-        <v>0.483621</v>
+        <v>0.235097</v>
       </c>
     </row>
     <row r="814">
       <c r="A814" s="1">
-        <v>0.31756999999999996</v>
+        <v>0.254273</v>
       </c>
     </row>
     <row r="815">
       <c r="A815" s="1">
-        <v>0.252897</v>
+        <v>0.284832</v>
       </c>
     </row>
     <row r="816">
       <c r="A816" s="1">
-        <v>0.209466</v>
+        <v>0.260196</v>
       </c>
     </row>
     <row r="817">
       <c r="A817" s="1">
-        <v>0.316675</v>
+        <v>0.29393600000000003</v>
       </c>
     </row>
     <row r="818">
       <c r="A818" s="1">
-        <v>0.208578</v>
+        <v>0.276434</v>
       </c>
     </row>
     <row r="819">
       <c r="A819" s="1">
-        <v>0.382465</v>
+        <v>0.34267</v>
       </c>
     </row>
     <row r="820">
       <c r="A820" s="1">
-        <v>0.30811700000000003</v>
+        <v>0.23397500000000002</v>
       </c>
     </row>
     <row r="821">
       <c r="A821" s="1">
-        <v>0.194975</v>
+        <v>0.279532</v>
       </c>
     </row>
     <row r="822">
       <c r="A822" s="1">
-        <v>0.618057</v>
+        <v>0.250071</v>
       </c>
     </row>
     <row r="823">
       <c r="A823" s="1">
-        <v>0.26870000000000005</v>
+        <v>0.32116300000000003</v>
       </c>
     </row>
     <row r="824">
       <c r="A824" s="1">
-        <v>0.281837</v>
+        <v>0.295123</v>
       </c>
     </row>
     <row r="825">
       <c r="A825" s="1">
-        <v>0.21427100000000002</v>
+        <v>0.2985</v>
       </c>
     </row>
     <row r="826">
       <c r="A826" s="1">
-        <v>0.19715100000000002</v>
+        <v>0.240172</v>
       </c>
     </row>
     <row r="827">
       <c r="A827" s="1">
-        <v>0.252162</v>
+        <v>0.300474</v>
       </c>
     </row>
     <row r="828">
       <c r="A828" s="1">
-        <v>0.241118</v>
+        <v>0.25147400000000003</v>
       </c>
     </row>
     <row r="829">
       <c r="A829" s="1">
-        <v>0.6791969999999999</v>
+        <v>0.25146</v>
       </c>
     </row>
     <row r="830">
       <c r="A830" s="1">
-        <v>0.29057</v>
+        <v>0.333497</v>
       </c>
     </row>
     <row r="831">
       <c r="A831" s="1">
-        <v>0.24413</v>
+        <v>0.270877</v>
       </c>
     </row>
     <row r="832">
       <c r="A832" s="1">
-        <v>0.234853</v>
+        <v>0.248468</v>
       </c>
     </row>
     <row r="833">
       <c r="A833" s="1">
-        <v>0.451975</v>
+        <v>0.27744</v>
       </c>
     </row>
     <row r="834">
       <c r="A834" s="1">
-        <v>0.27787500000000004</v>
+        <v>0.239114</v>
       </c>
     </row>
     <row r="835">
       <c r="A835" s="1">
-        <v>0.275403</v>
+        <v>0.243928</v>
       </c>
     </row>
     <row r="836">
       <c r="A836" s="1">
-        <v>0.681492</v>
+        <v>0.287263</v>
       </c>
     </row>
     <row r="837">
       <c r="A837" s="1">
-        <v>0.3147</v>
+        <v>0.297254</v>
       </c>
     </row>
     <row r="838">
       <c r="A838" s="1">
-        <v>0.293033</v>
+        <v>0.26873</v>
       </c>
     </row>
     <row r="839">
       <c r="A839" s="1">
-        <v>0.20323</v>
+        <v>0.265296</v>
       </c>
     </row>
     <row r="840">
       <c r="A840" s="1">
-        <v>0.39498</v>
+        <v>0.307031</v>
       </c>
     </row>
     <row r="841">
       <c r="A841" s="1">
-        <v>0.159579</v>
+        <v>0.303168</v>
       </c>
     </row>
     <row r="842">
       <c r="A842" s="1">
-        <v>0.197563</v>
+        <v>0.24607999999999997</v>
       </c>
     </row>
     <row r="843">
       <c r="A843" s="1">
-        <v>0.219473</v>
+        <v>0.27362000000000003</v>
       </c>
     </row>
     <row r="844">
       <c r="A844" s="1">
-        <v>0.274322</v>
+        <v>0.272679</v>
       </c>
     </row>
     <row r="845">
       <c r="A845" s="1">
-        <v>0.301158</v>
+        <v>0.295557</v>
       </c>
     </row>
     <row r="846">
       <c r="A846" s="1">
-        <v>0.325947</v>
+        <v>0.24978899999999998</v>
       </c>
     </row>
     <row r="847">
       <c r="A847" s="1">
-        <v>0.207234</v>
+        <v>0.31444900000000003</v>
       </c>
     </row>
     <row r="848">
       <c r="A848" s="1">
-        <v>0.36258999999999997</v>
+        <v>0.325343</v>
       </c>
     </row>
     <row r="849">
       <c r="A849" s="1">
-        <v>0.289492</v>
+        <v>0.232937</v>
       </c>
     </row>
     <row r="850">
       <c r="A850" s="1">
-        <v>0.156274</v>
+        <v>0.227102</v>
       </c>
     </row>
     <row r="851">
       <c r="A851" s="1">
-        <v>0.432923</v>
+        <v>0.28024</v>
       </c>
     </row>
     <row r="852">
       <c r="A852" s="1">
-        <v>0.165611</v>
+        <v>0.27780099999999996</v>
       </c>
     </row>
     <row r="853">
       <c r="A853" s="1">
-        <v>0.14923599999999998</v>
+        <v>0.25798299999999996</v>
       </c>
     </row>
     <row r="854">
       <c r="A854" s="1">
-        <v>0.61916</v>
+        <v>0.348074</v>
       </c>
     </row>
     <row r="855">
       <c r="A855" s="1">
-        <v>0.260937</v>
+        <v>0.25712</v>
       </c>
     </row>
     <row r="856">
       <c r="A856" s="1">
-        <v>0.205049</v>
+        <v>0.30689</v>
       </c>
     </row>
     <row r="857">
       <c r="A857" s="1">
-        <v>0.444382</v>
+        <v>0.28636</v>
       </c>
     </row>
     <row r="858">
       <c r="A858" s="1">
-        <v>0.304979</v>
+        <v>0.33273400000000003</v>
       </c>
     </row>
     <row r="859">
       <c r="A859" s="1">
-        <v>0.225056</v>
+        <v>0.317109</v>
       </c>
     </row>
     <row r="860">
       <c r="A860" s="1">
-        <v>0.183387</v>
+        <v>0.439351</v>
       </c>
     </row>
     <row r="861">
       <c r="A861" s="1">
-        <v>0.304703</v>
+        <v>0.322174</v>
       </c>
     </row>
     <row r="862">
       <c r="A862" s="1">
-        <v>0.168756</v>
+        <v>0.225145</v>
       </c>
     </row>
     <row r="863">
       <c r="A863" s="1">
-        <v>0.191246</v>
+        <v>0.312343</v>
       </c>
     </row>
     <row r="864">
       <c r="A864" s="1">
-        <v>0.39702</v>
+        <v>0.309594</v>
       </c>
     </row>
     <row r="865">
       <c r="A865" s="1">
-        <v>0.205899</v>
+        <v>0.24130000000000001</v>
       </c>
     </row>
     <row r="866">
       <c r="A866" s="1">
-        <v>0.323974</v>
+        <v>0.37025399999999997</v>
       </c>
     </row>
     <row r="867">
       <c r="A867" s="1">
-        <v>0.343625</v>
+        <v>0.353834</v>
       </c>
     </row>
     <row r="868">
       <c r="A868" s="1">
-        <v>0.216732</v>
+        <v>0.393579</v>
       </c>
     </row>
     <row r="869">
       <c r="A869" s="1">
-        <v>0.418865</v>
+        <v>0.279351</v>
       </c>
     </row>
     <row r="870">
       <c r="A870" s="1">
-        <v>0.2553</v>
+        <v>0.252389</v>
       </c>
     </row>
     <row r="871">
       <c r="A871" s="1">
-        <v>0.36648</v>
+        <v>0.312048</v>
       </c>
     </row>
     <row r="872">
       <c r="A872" s="1">
-        <v>0.317135</v>
+        <v>0.243805</v>
       </c>
     </row>
     <row r="873">
       <c r="A873" s="1">
-        <v>0.413513</v>
+        <v>0.27644300000000005</v>
       </c>
     </row>
     <row r="874">
       <c r="A874" s="1">
-        <v>0.18593</v>
+        <v>0.347346</v>
       </c>
     </row>
     <row r="875">
       <c r="A875" s="1">
-        <v>0.354542</v>
+        <v>0.28221</v>
       </c>
     </row>
     <row r="876">
       <c r="A876" s="1">
-        <v>0.211082</v>
+        <v>0.250645</v>
       </c>
     </row>
     <row r="877">
       <c r="A877" s="1">
-        <v>0.273268</v>
+        <v>0.284254</v>
       </c>
     </row>
     <row r="878">
       <c r="A878" s="1">
-        <v>0.599803</v>
+        <v>0.24883400000000003</v>
       </c>
     </row>
     <row r="879">
       <c r="A879" s="1">
-        <v>0.36109</v>
+        <v>0.24993500000000002</v>
       </c>
     </row>
     <row r="880">
       <c r="A880" s="1">
-        <v>0.273895</v>
+        <v>0.2364</v>
       </c>
     </row>
     <row r="881">
       <c r="A881" s="1">
-        <v>0.283758</v>
+        <v>0.286071</v>
       </c>
     </row>
     <row r="882">
       <c r="A882" s="1">
-        <v>0.342409</v>
+        <v>0.282935</v>
       </c>
     </row>
     <row r="883">
       <c r="A883" s="1">
-        <v>0.35155499999999995</v>
+        <v>0.305469</v>
       </c>
     </row>
     <row r="884">
       <c r="A884" s="1">
-        <v>0.230108</v>
+        <v>0.22644</v>
       </c>
     </row>
     <row r="885">
       <c r="A885" s="1">
-        <v>0.23424</v>
+        <v>0.226932</v>
       </c>
     </row>
     <row r="886">
       <c r="A886" s="1">
-        <v>0.23102</v>
+        <v>0.21102600000000002</v>
       </c>
     </row>
     <row r="887">
       <c r="A887" s="1">
-        <v>0.262775</v>
+        <v>0.23754599999999998</v>
       </c>
     </row>
     <row r="888">
       <c r="A888" s="1">
-        <v>0.22168200000000002</v>
+        <v>0.358858</v>
       </c>
     </row>
     <row r="889">
       <c r="A889" s="1">
-        <v>0.28001000000000004</v>
+        <v>0.23991400000000002</v>
       </c>
     </row>
     <row r="890">
       <c r="A890" s="1">
-        <v>0.26826999999999995</v>
+        <v>0.241129</v>
       </c>
     </row>
     <row r="891">
       <c r="A891" s="1">
-        <v>0.394168</v>
+        <v>0.30196599999999996</v>
       </c>
     </row>
     <row r="892">
       <c r="A892" s="1">
-        <v>0.319355</v>
+        <v>0.272646</v>
       </c>
     </row>
     <row r="893">
       <c r="A893" s="1">
-        <v>0.288323</v>
+        <v>0.32326499999999997</v>
       </c>
     </row>
     <row r="894">
       <c r="A894" s="1">
-        <v>0.296012</v>
+        <v>0.245137</v>
       </c>
     </row>
     <row r="895">
       <c r="A895" s="1">
-        <v>0.4011</v>
+        <v>0.291628</v>
       </c>
     </row>
     <row r="896">
       <c r="A896" s="1">
-        <v>0.584522</v>
+        <v>0.266853</v>
       </c>
     </row>
     <row r="897">
       <c r="A897" s="1">
-        <v>0.28656899999999996</v>
+        <v>0.35942599999999997</v>
       </c>
     </row>
     <row r="898">
       <c r="A898" s="1">
-        <v>0.32306</v>
+        <v>0.270162</v>
       </c>
     </row>
     <row r="899">
       <c r="A899" s="1">
-        <v>0.274913</v>
+        <v>0.28897500000000004</v>
       </c>
     </row>
     <row r="900">
       <c r="A900" s="1">
-        <v>0.381258</v>
+        <v>0.263219</v>
       </c>
     </row>
     <row r="901">
       <c r="A901" s="1">
-        <v>0.272565</v>
+        <v>0.275192</v>
       </c>
     </row>
     <row r="902">
       <c r="A902" s="1">
-        <v>0.24915</v>
+        <v>0.278917</v>
       </c>
     </row>
     <row r="903">
       <c r="A903" s="1">
-        <v>6.183018000000001</v>
+        <v>0.33798500000000004</v>
       </c>
     </row>
     <row r="904">
       <c r="A904" s="1">
-        <v>0.44719</v>
+        <v>0.294537</v>
       </c>
     </row>
     <row r="905">
       <c r="A905" s="1">
-        <v>0.37827500000000003</v>
+        <v>0.321244</v>
       </c>
     </row>
     <row r="906">
       <c r="A906" s="1">
-        <v>0.238263</v>
+        <v>0.309765</v>
       </c>
     </row>
     <row r="907">
       <c r="A907" s="1">
-        <v>0.589397</v>
+        <v>0.232311</v>
       </c>
     </row>
     <row r="908">
       <c r="A908" s="1">
-        <v>0.22359600000000002</v>
+        <v>0.343255</v>
       </c>
     </row>
     <row r="909">
       <c r="A909" s="1">
-        <v>0.41522899999999996</v>
+        <v>0.318032</v>
       </c>
     </row>
     <row r="910">
       <c r="A910" s="1">
-        <v>0.19575399999999998</v>
+        <v>0.224809</v>
       </c>
     </row>
     <row r="911">
       <c r="A911" s="1">
-        <v>0.501817</v>
+        <v>0.26284799999999997</v>
       </c>
     </row>
     <row r="912">
       <c r="A912" s="1">
-        <v>0.54779</v>
+        <v>0.287212</v>
       </c>
     </row>
     <row r="913">
       <c r="A913" s="1">
-        <v>0.168312</v>
+        <v>0.325637</v>
       </c>
     </row>
     <row r="914">
       <c r="A914" s="1">
-        <v>0.422775</v>
+        <v>0.261223</v>
       </c>
     </row>
     <row r="915">
       <c r="A915" s="1">
-        <v>0.6667420000000001</v>
+        <v>0.32542600000000005</v>
       </c>
     </row>
     <row r="916">
       <c r="A916" s="1">
-        <v>2.745549</v>
+        <v>0.25492</v>
       </c>
     </row>
     <row r="917">
       <c r="A917" s="1">
-        <v>0.206059</v>
+        <v>0.24223699999999998</v>
       </c>
     </row>
     <row r="918">
       <c r="A918" s="1">
-        <v>0.181194</v>
+        <v>0.294202</v>
       </c>
     </row>
     <row r="919">
       <c r="A919" s="1">
-        <v>0.273941</v>
+        <v>0.315312</v>
       </c>
     </row>
     <row r="920">
       <c r="A920" s="1">
-        <v>0.591772</v>
+        <v>0.337171</v>
       </c>
     </row>
     <row r="921">
       <c r="A921" s="1">
-        <v>0.256769</v>
+        <v>0.33191299999999996</v>
       </c>
     </row>
     <row r="922">
       <c r="A922" s="1">
-        <v>0.202905</v>
+        <v>0.303317</v>
       </c>
     </row>
     <row r="923">
       <c r="A923" s="1">
-        <v>0.20649599999999999</v>
+        <v>0.299305</v>
       </c>
     </row>
     <row r="924">
       <c r="A924" s="1">
-        <v>0.226395</v>
+        <v>0.256758</v>
       </c>
     </row>
     <row r="925">
       <c r="A925" s="1">
-        <v>0.178594</v>
+        <v>0.25241199999999997</v>
       </c>
     </row>
     <row r="926">
       <c r="A926" s="1">
-        <v>0.18511</v>
+        <v>0.23573</v>
       </c>
     </row>
     <row r="927">
       <c r="A927" s="1">
-        <v>0.247359</v>
+        <v>0.30208399999999996</v>
       </c>
     </row>
     <row r="928">
       <c r="A928" s="1">
-        <v>0.13894</v>
+        <v>0.242243</v>
       </c>
     </row>
     <row r="929">
       <c r="A929" s="1">
-        <v>0.221232</v>
+        <v>0.273126</v>
       </c>
     </row>
     <row r="930">
       <c r="A930" s="1">
-        <v>0.217175</v>
+        <v>0.246886</v>
       </c>
     </row>
     <row r="931">
       <c r="A931" s="1">
-        <v>0.199273</v>
+        <v>0.241581</v>
       </c>
     </row>
     <row r="932">
       <c r="A932" s="1">
-        <v>0.223571</v>
+        <v>0.306775</v>
       </c>
     </row>
     <row r="933">
       <c r="A933" s="1">
-        <v>0.236714</v>
+        <v>0.300592</v>
       </c>
     </row>
     <row r="934">
       <c r="A934" s="1">
-        <v>0.254933</v>
+        <v>0.24163400000000002</v>
       </c>
     </row>
     <row r="935">
       <c r="A935" s="1">
-        <v>0.229995</v>
+        <v>0.29342700000000005</v>
       </c>
     </row>
     <row r="936">
       <c r="A936" s="1">
-        <v>0.219413</v>
+        <v>0.238123</v>
       </c>
     </row>
     <row r="937">
       <c r="A937" s="1">
-        <v>0.32304000000000005</v>
+        <v>0.32317</v>
       </c>
     </row>
     <row r="938">
       <c r="A938" s="1">
-        <v>0.256889</v>
+        <v>0.27528600000000003</v>
       </c>
     </row>
     <row r="939">
       <c r="A939" s="1">
-        <v>0.229435</v>
+        <v>0.304448</v>
       </c>
     </row>
     <row r="940">
       <c r="A940" s="1">
-        <v>0.6595219999999999</v>
+        <v>0.30807300000000004</v>
       </c>
     </row>
     <row r="941">
       <c r="A941" s="1">
-        <v>0.231673</v>
+        <v>0.21385600000000002</v>
       </c>
     </row>
     <row r="942">
       <c r="A942" s="1">
-        <v>0.178557</v>
+        <v>0.257387</v>
       </c>
     </row>
     <row r="943">
       <c r="A943" s="1">
-        <v>0.250378</v>
+        <v>0.32842</v>
       </c>
     </row>
     <row r="944">
       <c r="A944" s="1">
-        <v>0.197113</v>
+        <v>0.236283</v>
       </c>
     </row>
     <row r="945">
       <c r="A945" s="1">
-        <v>0.271839</v>
+        <v>0.251247</v>
       </c>
     </row>
     <row r="946">
       <c r="A946" s="1">
-        <v>0.191404</v>
+        <v>0.232263</v>
       </c>
     </row>
     <row r="947">
       <c r="A947" s="1">
-        <v>0.157285</v>
+        <v>0.24120899999999998</v>
       </c>
     </row>
     <row r="948">
       <c r="A948" s="1">
-        <v>0.284925</v>
+        <v>0.250227</v>
       </c>
     </row>
     <row r="949">
       <c r="A949" s="1">
-        <v>0.30722</v>
+        <v>0.297292</v>
       </c>
     </row>
     <row r="950">
       <c r="A950" s="1">
-        <v>0.155268</v>
+        <v>0.342686</v>
       </c>
     </row>
     <row r="951">
       <c r="A951" s="1">
-        <v>0.346343</v>
+        <v>0.32572599999999996</v>
       </c>
     </row>
     <row r="952">
       <c r="A952" s="1">
-        <v>0.28172800000000003</v>
+        <v>0.29775100000000004</v>
       </c>
     </row>
     <row r="953">
       <c r="A953" s="1">
-        <v>0.284815</v>
+        <v>0.255612</v>
       </c>
     </row>
     <row r="954">
       <c r="A954" s="1">
-        <v>0.337403</v>
+        <v>0.300631</v>
       </c>
     </row>
     <row r="955">
       <c r="A955" s="1">
-        <v>0.23854599999999998</v>
+        <v>0.310216</v>
       </c>
     </row>
     <row r="956">
       <c r="A956" s="1">
-        <v>0.279235</v>
+        <v>0.311343</v>
       </c>
     </row>
     <row r="957">
       <c r="A957" s="1">
-        <v>0.318047</v>
+        <v>0.215048</v>
       </c>
     </row>
     <row r="958">
       <c r="A958" s="1">
-        <v>0.151198</v>
+        <v>0.234314</v>
       </c>
     </row>
     <row r="959">
       <c r="A959" s="1">
-        <v>0.402327</v>
+        <v>0.24062899999999998</v>
       </c>
     </row>
     <row r="960">
       <c r="A960" s="1">
-        <v>0.215063</v>
+        <v>0.25632</v>
       </c>
     </row>
     <row r="961">
       <c r="A961" s="1">
-        <v>0.176428</v>
+        <v>0.279945</v>
       </c>
     </row>
     <row r="962">
       <c r="A962" s="1">
-        <v>0.302377</v>
+        <v>0.242229</v>
       </c>
     </row>
     <row r="963">
       <c r="A963" s="1">
-        <v>0.21426099999999998</v>
+        <v>0.277544</v>
       </c>
     </row>
     <row r="964">
       <c r="A964" s="1">
-        <v>0.274978</v>
+        <v>0.447212</v>
       </c>
     </row>
     <row r="965">
       <c r="A965" s="1">
-        <v>0.272473</v>
+        <v>0.29809800000000003</v>
       </c>
     </row>
     <row r="966">
       <c r="A966" s="1">
-        <v>0.153197</v>
+        <v>0.295849</v>
       </c>
     </row>
     <row r="967">
       <c r="A967" s="1">
-        <v>0.212506</v>
+        <v>0.273652</v>
       </c>
     </row>
     <row r="968">
       <c r="A968" s="1">
-        <v>0.211357</v>
+        <v>0.334077</v>
       </c>
     </row>
     <row r="969">
       <c r="A969" s="1">
-        <v>0.223398</v>
+        <v>0.291453</v>
       </c>
     </row>
     <row r="970">
       <c r="A970" s="1">
-        <v>0.292371</v>
+        <v>0.241062</v>
       </c>
     </row>
     <row r="971">
       <c r="A971" s="1">
-        <v>0.24833199999999997</v>
+        <v>0.36303399999999997</v>
       </c>
     </row>
     <row r="972">
       <c r="A972" s="1">
-        <v>0.219363</v>
+        <v>0.304616</v>
       </c>
     </row>
     <row r="973">
       <c r="A973" s="1">
-        <v>0.511112</v>
+        <v>0.264172</v>
       </c>
     </row>
     <row r="974">
       <c r="A974" s="1">
-        <v>0.187471</v>
+        <v>0.28876</v>
       </c>
     </row>
     <row r="975">
       <c r="A975" s="1">
-        <v>0.228219</v>
+        <v>0.26818000000000003</v>
       </c>
     </row>
     <row r="976">
       <c r="A976" s="1">
-        <v>0.469963</v>
+        <v>0.241006</v>
       </c>
     </row>
     <row r="977">
       <c r="A977" s="1">
-        <v>0.682364</v>
+        <v>0.24798000000000003</v>
       </c>
     </row>
     <row r="978">
       <c r="A978" s="1">
-        <v>1.8115830000000002</v>
+        <v>0.28103999999999996</v>
       </c>
     </row>
     <row r="979">
       <c r="A979" s="1">
-        <v>1.003929</v>
+        <v>0.25818800000000003</v>
       </c>
     </row>
     <row r="980">
       <c r="A980" s="1">
-        <v>0.5151300000000001</v>
+        <v>0.36134900000000003</v>
       </c>
     </row>
     <row r="981">
       <c r="A981" s="1">
-        <v>0.85865</v>
+        <v>0.274476</v>
       </c>
     </row>
     <row r="982">
       <c r="A982" s="1">
-        <v>0.5095419999999999</v>
+        <v>0.29034299999999996</v>
       </c>
     </row>
     <row r="983">
       <c r="A983" s="1">
-        <v>0.40310999999999997</v>
+        <v>0.337175</v>
       </c>
     </row>
     <row r="984">
       <c r="A984" s="1">
-        <v>0.367477</v>
+        <v>0.31613600000000003</v>
       </c>
     </row>
     <row r="985">
       <c r="A985" s="1">
-        <v>0.158722</v>
+        <v>0.292962</v>
       </c>
     </row>
     <row r="986">
       <c r="A986" s="1">
-        <v>0.19193</v>
+        <v>0.294392</v>
       </c>
     </row>
     <row r="987">
       <c r="A987" s="1">
-        <v>0.46373699999999995</v>
+        <v>0.365497</v>
       </c>
     </row>
     <row r="988">
       <c r="A988" s="1">
-        <v>0.25966</v>
+        <v>0.26543999999999995</v>
       </c>
     </row>
     <row r="989">
       <c r="A989" s="1">
-        <v>0.910198</v>
+        <v>0.29285599999999995</v>
       </c>
     </row>
     <row r="990">
       <c r="A990" s="1">
-        <v>0.16837500000000002</v>
+        <v>0.23089900000000002</v>
       </c>
     </row>
     <row r="991">
       <c r="A991" s="1">
-        <v>0.417667</v>
+        <v>0.28276799999999996</v>
       </c>
     </row>
     <row r="992">
       <c r="A992" s="1">
-        <v>0.26681699999999997</v>
+        <v>0.371251</v>
       </c>
     </row>
     <row r="993">
       <c r="A993" s="1">
-        <v>0.248615</v>
+        <v>0.31346199999999996</v>
       </c>
     </row>
     <row r="994">
       <c r="A994" s="1">
-        <v>0.235561</v>
+        <v>0.324877</v>
       </c>
     </row>
     <row r="995">
       <c r="A995" s="1">
-        <v>0.195799</v>
+        <v>0.246218</v>
       </c>
     </row>
     <row r="996">
       <c r="A996" s="1">
-        <v>0.211568</v>
+        <v>0.25294500000000003</v>
       </c>
     </row>
     <row r="997">
       <c r="A997" s="1">
-        <v>0.17933200000000002</v>
+        <v>0.25113</v>
       </c>
     </row>
     <row r="998">
       <c r="A998" s="1">
-        <v>0.215728</v>
+        <v>0.28787</v>
       </c>
     </row>
     <row r="999">
       <c r="A999" s="1">
-        <v>0.280761</v>
+        <v>0.319097</v>
       </c>
     </row>
     <row r="1000">
       <c r="A1000" s="1">
-        <v>0.193212</v>
+        <v>0.306468</v>
       </c>
     </row>
     <row r="1001">
       <c r="A1001" s="1">
-        <v>0.46835</v>
+        <v>0.287541</v>
       </c>
     </row>
     <row r="1002">
       <c r="A1002" s="1">
-        <v>0.19117099999999998</v>
+        <v>0.312517</v>
       </c>
     </row>
   </sheetData>
